--- a/docs/preproduction/06_plan_de_test/excel-inventaire.xlsx
+++ b/docs/preproduction/06_plan_de_test/excel-inventaire.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MaxDisque1\session_5\gestion_de_projet\repo_malt5\L-horloge-de-l-apocalypse\docs\preproduction\06_plan_de_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A191B2-00EC-4F52-BD22-AE866F68DC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B021D49-AA3E-42A0-ACFA-0CE46BB464E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5415" yWindow="5415" windowWidth="28800" windowHeight="15435" activeTab="5" xr2:uid="{843C9051-5019-4B47-AA3C-5A96CF952858}"/>
+    <workbookView xWindow="4995" yWindow="4395" windowWidth="28800" windowHeight="15435" activeTab="2" xr2:uid="{843C9051-5019-4B47-AA3C-5A96CF952858}"/>
   </bookViews>
   <sheets>
     <sheet name="Logiciels" sheetId="13" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="71">
   <si>
     <t>Combien ?</t>
   </si>
@@ -228,6 +228,30 @@
   </si>
   <si>
     <t>Bouton d'arcade</t>
+  </si>
+  <si>
+    <t>Pour le code de détection de présence</t>
+  </si>
+  <si>
+    <t>Pour la détection de présence</t>
+  </si>
+  <si>
+    <t>Projecteurs pour la projection de la scène progressive</t>
+  </si>
+  <si>
+    <t>Pour contrôler la progression de la scène progressive</t>
+  </si>
+  <si>
+    <t>Pour contrôler l'activation du téléphone</t>
+  </si>
+  <si>
+    <t>Permet de tout gérerle contenu interactif du projet.</t>
+  </si>
+  <si>
+    <t>Animation de scène finale</t>
+  </si>
+  <si>
+    <t>Vidéo montrant un décompte d'horloge avec un message.</t>
   </si>
 </sst>
 </file>
@@ -593,7 +617,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,56 +647,89 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
       <c r="B11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
       <c r="B12" t="s">
         <v>27</v>
       </c>
@@ -779,10 +836,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD2784A-FB3C-40C7-BECB-0625410C6D96}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,6 +931,20 @@
       </c>
       <c r="E21" s="1" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1096,8 +1167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{623183FD-8A22-429D-B892-4C72C88F09E1}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1141,6 +1212,9 @@
       <c r="B3" t="s">
         <v>19</v>
       </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -1148,6 +1222,9 @@
       </c>
       <c r="B4" t="s">
         <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1157,6 +1234,9 @@
       <c r="B5" t="s">
         <v>21</v>
       </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1165,6 +1245,9 @@
       <c r="B6" t="s">
         <v>22</v>
       </c>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1173,6 +1256,9 @@
       <c r="B7" t="s">
         <v>62</v>
       </c>
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1180,6 +1266,9 @@
       </c>
       <c r="B8" t="s">
         <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/docs/preproduction/06_plan_de_test/excel-inventaire.xlsx
+++ b/docs/preproduction/06_plan_de_test/excel-inventaire.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MaxDisque1\session_5\gestion_de_projet\repo_malt5\L-horloge-de-l-apocalypse\docs\preproduction\06_plan_de_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B021D49-AA3E-42A0-ACFA-0CE46BB464E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9AB5EC-4C5B-4D47-A90F-A68128E03B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4995" yWindow="4395" windowWidth="28800" windowHeight="15435" activeTab="2" xr2:uid="{843C9051-5019-4B47-AA3C-5A96CF952858}"/>
+    <workbookView xWindow="4995" yWindow="4395" windowWidth="28800" windowHeight="15435" activeTab="5" xr2:uid="{843C9051-5019-4B47-AA3C-5A96CF952858}"/>
   </bookViews>
   <sheets>
     <sheet name="Logiciels" sheetId="13" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="74">
   <si>
     <t>Combien ?</t>
   </si>
@@ -252,6 +252,15 @@
   </si>
   <si>
     <t>Vidéo montrant un décompte d'horloge avec un message.</t>
+  </si>
+  <si>
+    <t>Projecteur de lumière</t>
+  </si>
+  <si>
+    <t>Pour illuminer le pédestal</t>
+  </si>
+  <si>
+    <t>Pour le fonctionnement du téléphone</t>
   </si>
 </sst>
 </file>
@@ -838,7 +847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD2784A-FB3C-40C7-BECB-0625410C6D96}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -1165,10 +1174,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{623183FD-8A22-429D-B892-4C72C88F09E1}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1204,6 +1213,9 @@
       <c r="B2" t="s">
         <v>26</v>
       </c>
+      <c r="C2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -1269,6 +1281,17 @@
       </c>
       <c r="C8" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/docs/preproduction/06_plan_de_test/excel-inventaire.xlsx
+++ b/docs/preproduction/06_plan_de_test/excel-inventaire.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MaxDisque1\session_5\gestion_de_projet\repo_malt5\L-horloge-de-l-apocalypse\docs\preproduction\06_plan_de_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9AB5EC-4C5B-4D47-A90F-A68128E03B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB5F773-2F58-40E1-8667-774C0ACEED78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4995" yWindow="4395" windowWidth="28800" windowHeight="15435" activeTab="5" xr2:uid="{843C9051-5019-4B47-AA3C-5A96CF952858}"/>
+    <workbookView xWindow="4995" yWindow="4395" windowWidth="28800" windowHeight="15435" xr2:uid="{843C9051-5019-4B47-AA3C-5A96CF952858}"/>
   </bookViews>
   <sheets>
     <sheet name="Logiciels" sheetId="13" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="101">
   <si>
     <t>Combien ?</t>
   </si>
@@ -128,15 +128,6 @@
     <t>Images utilisés pour la projection</t>
   </si>
   <si>
-    <t>after effects vidéo animation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La vidéo animé de la scène 1 et 2 </t>
-  </si>
-  <si>
-    <t>fait</t>
-  </si>
-  <si>
     <t>Logiciel Kinect créé par Guillaume Arsenault</t>
   </si>
   <si>
@@ -212,9 +203,6 @@
     <t>Animation After effects de la plaine projeté</t>
   </si>
   <si>
-    <t>AnimationAfter effects de la plaine projeté</t>
-  </si>
-  <si>
     <t>Son ambiance progressif test</t>
   </si>
   <si>
@@ -261,6 +249,99 @@
   </si>
   <si>
     <t>Pour le fonctionnement du téléphone</t>
+  </si>
+  <si>
+    <t>Photoshop 4</t>
+  </si>
+  <si>
+    <t>À faire</t>
+  </si>
+  <si>
+    <t>Photoshop 5</t>
+  </si>
+  <si>
+    <t>Photoshop 6</t>
+  </si>
+  <si>
+    <t>Photoshop 7</t>
+  </si>
+  <si>
+    <t>Photoshop 8</t>
+  </si>
+  <si>
+    <t>Photoshop 9</t>
+  </si>
+  <si>
+    <t>Musique scène 1</t>
+  </si>
+  <si>
+    <t>Trame sonore pour la scène 01</t>
+  </si>
+  <si>
+    <t>Partiellement fait</t>
+  </si>
+  <si>
+    <t>Musique scène 2</t>
+  </si>
+  <si>
+    <t>Musique scène 3</t>
+  </si>
+  <si>
+    <t>Musique scène 4</t>
+  </si>
+  <si>
+    <t>Musique scène 5</t>
+  </si>
+  <si>
+    <t>Musique scène 6</t>
+  </si>
+  <si>
+    <t>Musique scène 7</t>
+  </si>
+  <si>
+    <t>Musique scène 8</t>
+  </si>
+  <si>
+    <t>Musique scène 9</t>
+  </si>
+  <si>
+    <t>Musique scène 10</t>
+  </si>
+  <si>
+    <t>Musique scène 11</t>
+  </si>
+  <si>
+    <t>Musique scène 12</t>
+  </si>
+  <si>
+    <t>Animation plaine_03</t>
+  </si>
+  <si>
+    <t>Animation plaine_04</t>
+  </si>
+  <si>
+    <t>Animation plaine_05</t>
+  </si>
+  <si>
+    <t>Animation plaine_06</t>
+  </si>
+  <si>
+    <t>Animation plaine_07</t>
+  </si>
+  <si>
+    <t>Animation plaine_08</t>
+  </si>
+  <si>
+    <t>Animation plaine_09</t>
+  </si>
+  <si>
+    <t>Animation plaine_10</t>
+  </si>
+  <si>
+    <t>Animation plaine_11</t>
+  </si>
+  <si>
+    <t>Animation plaine_12</t>
   </si>
 </sst>
 </file>
@@ -625,7 +706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59AE4973-A763-49AB-8EA9-ED405D53B28B}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -732,7 +813,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -807,7 +888,7 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -824,7 +905,7 @@
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -845,10 +926,247 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD2784A-FB3C-40C7-BECB-0625410C6D96}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="35.28515625" customWidth="1"/>
+    <col min="3" max="3" width="62.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="80.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{D11C5370-739C-4185-B46A-CF0EE2F38D1A}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{A5D0B02F-3000-42E8-A77A-55578C54D9F0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D09B769-3BF7-445D-86B9-6CCE30ED4A84}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,98 +1197,208 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
         <v>70</v>
       </c>
-      <c r="D22" t="s">
-        <v>54</v>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E20" r:id="rId1" xr:uid="{0AEAD651-8ECE-4DC1-B70B-CB9B1C2D0004}"/>
-    <hyperlink ref="E21" r:id="rId2" xr:uid="{B98D99C4-78BB-4172-830B-1533169E9739}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{68E95C56-89AB-46BE-85D7-2384390F9335}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{92D28946-ACF5-4641-AF73-25406FD90471}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{EFB0F6F9-853C-40DB-983D-B9321E64410A}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{833396A8-D0B5-46EE-955F-654E0F1DDED5}"/>
+    <hyperlink ref="E7" r:id="rId5" xr:uid="{BE28096C-0F73-41F5-877D-A2CF5B0BD0EE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D09B769-3BF7-445D-86B9-6CCE30ED4A84}">
-  <dimension ref="A1:E7"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC96E029-0F74-4F6D-B0C1-CFAFCCF5021B}">
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,33 +1432,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1038,16 +1449,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1055,16 +1463,13 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1072,16 +1477,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1089,36 +1491,141 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>47</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{68E95C56-89AB-46BE-85D7-2384390F9335}"/>
-    <hyperlink ref="E4" r:id="rId2" xr:uid="{92D28946-ACF5-4641-AF73-25406FD90471}"/>
-    <hyperlink ref="E5" r:id="rId3" xr:uid="{EFB0F6F9-853C-40DB-983D-B9321E64410A}"/>
-    <hyperlink ref="E6" r:id="rId4" xr:uid="{833396A8-D0B5-46EE-955F-654E0F1DDED5}"/>
-    <hyperlink ref="E7" r:id="rId5" xr:uid="{BE28096C-0F73-41F5-877D-A2CF5B0BD0EE}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{5C6495A5-C85F-4F9F-A269-8EA035A3587D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC96E029-0F74-4F6D-B0C1-CFAFCCF5021B}">
-  <dimension ref="A1:E2"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{623183FD-8A22-429D-B892-4C72C88F09E1}">
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1152,69 +1659,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{5C6495A5-C85F-4F9F-A269-8EA035A3587D}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{623183FD-8A22-429D-B892-4C72C88F09E1}">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="35.28515625" customWidth="1"/>
-    <col min="3" max="3" width="62.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="80.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1225,7 +1673,7 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1236,7 +1684,7 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1247,7 +1695,7 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1258,7 +1706,7 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1266,10 +1714,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1277,10 +1725,10 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1288,10 +1736,10 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/docs/preproduction/06_plan_de_test/excel-inventaire.xlsx
+++ b/docs/preproduction/06_plan_de_test/excel-inventaire.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MaxDisque1\session_5\gestion_de_projet\repo_malt5\L-horloge-de-l-apocalypse\docs\preproduction\06_plan_de_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\GitHub\L-horloge-de-l-apocalypse\docs\preproduction\06_plan_de_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB5F773-2F58-40E1-8667-774C0ACEED78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5CE427-FDD5-4180-A1BD-7EE771A89FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4995" yWindow="4395" windowWidth="28800" windowHeight="15435" xr2:uid="{843C9051-5019-4B47-AA3C-5A96CF952858}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{843C9051-5019-4B47-AA3C-5A96CF952858}"/>
   </bookViews>
   <sheets>
     <sheet name="Logiciels" sheetId="13" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Vidéo" sheetId="11" r:id="rId3"/>
     <sheet name="Images" sheetId="10" r:id="rId4"/>
     <sheet name="Audio" sheetId="9" r:id="rId5"/>
-    <sheet name="Matériels" sheetId="6" r:id="rId6"/>
+    <sheet name="Matériel" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -233,9 +233,6 @@
     <t>Pour contrôler l'activation du téléphone</t>
   </si>
   <si>
-    <t>Permet de tout gérerle contenu interactif du projet.</t>
-  </si>
-  <si>
     <t>Animation de scène finale</t>
   </si>
   <si>
@@ -342,6 +339,9 @@
   </si>
   <si>
     <t>Animation plaine_12</t>
+  </si>
+  <si>
+    <t>Permet de tout gérer le contenu interactif du projet.</t>
   </si>
 </sst>
 </file>
@@ -707,7 +707,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,7 +834,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,7 +929,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -997,10 +997,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
         <v>65</v>
-      </c>
-      <c r="C4" t="s">
-        <v>66</v>
       </c>
       <c r="D4" t="s">
         <v>51</v>
@@ -1011,13 +1011,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s">
         <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1025,13 +1025,13 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s">
         <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1039,13 +1039,13 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
         <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1053,13 +1053,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
         <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1067,13 +1067,13 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C10" t="s">
         <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1081,13 +1081,13 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C11" t="s">
         <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1095,13 +1095,13 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C12" t="s">
         <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1109,13 +1109,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C13" t="s">
         <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1123,13 +1123,13 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C14" t="s">
         <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1137,13 +1137,13 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C15" t="s">
         <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="5:5" x14ac:dyDescent="0.25">
@@ -1302,13 +1302,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1316,13 +1316,13 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1330,13 +1330,13 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1344,13 +1344,13 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1358,13 +1358,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1372,13 +1372,13 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1449,13 +1449,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
         <v>77</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>78</v>
-      </c>
-      <c r="D4" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1463,13 +1463,13 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" t="s">
         <v>78</v>
-      </c>
-      <c r="D5" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1477,13 +1477,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" t="s">
         <v>78</v>
-      </c>
-      <c r="D6" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1491,13 +1491,13 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" t="s">
         <v>78</v>
-      </c>
-      <c r="D7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1505,13 +1505,13 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1519,13 +1519,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1533,13 +1533,13 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1547,13 +1547,13 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1561,13 +1561,13 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1575,13 +1575,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1589,13 +1589,13 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1603,13 +1603,13 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1625,7 +1625,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1662,7 +1662,7 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1728,7 +1728,7 @@
         <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1736,10 +1736,10 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" t="s">
         <v>67</v>
-      </c>
-      <c r="C9" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/docs/preproduction/06_plan_de_test/excel-inventaire.xlsx
+++ b/docs/preproduction/06_plan_de_test/excel-inventaire.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\GitHub\L-horloge-de-l-apocalypse\docs\preproduction\06_plan_de_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5CE427-FDD5-4180-A1BD-7EE771A89FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346855BC-A386-4FC2-92FC-A64725471224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{843C9051-5019-4B47-AA3C-5A96CF952858}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{843C9051-5019-4B47-AA3C-5A96CF952858}"/>
   </bookViews>
   <sheets>
     <sheet name="Logiciels" sheetId="13" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Images" sheetId="10" r:id="rId4"/>
     <sheet name="Audio" sheetId="9" r:id="rId5"/>
     <sheet name="Matériel" sheetId="6" r:id="rId6"/>
+    <sheet name="Modules multimédias" sheetId="14" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="115">
   <si>
     <t>Combien ?</t>
   </si>
@@ -342,6 +343,48 @@
   </si>
   <si>
     <t>Permet de tout gérer le contenu interactif du projet.</t>
+  </si>
+  <si>
+    <t>descrition</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>captation des données</t>
+  </si>
+  <si>
+    <t>interprétation des données</t>
+  </si>
+  <si>
+    <t>contrôle d'éclairage</t>
+  </si>
+  <si>
+    <t>contrôle vidéo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Captation des données de présence </t>
+  </si>
+  <si>
+    <t>Logiciel de Guillaume</t>
+  </si>
+  <si>
+    <t>Envoie des données pour allumer la lumière</t>
+  </si>
+  <si>
+    <t>Contrôle des scènes par OBS</t>
+  </si>
+  <si>
+    <t>OBS et Max</t>
+  </si>
+  <si>
+    <t>QLC +</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Reçoit les données pour permettre le changement de scènes</t>
   </si>
 </sst>
 </file>
@@ -706,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59AE4973-A763-49AB-8EA9-ED405D53B28B}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{159CDADE-7593-40E4-BD38-BE319F167546}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1166,7 +1209,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1398,7 +1441,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1625,7 +1668,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1745,4 +1788,110 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908307E9-B803-40C4-B668-2F53631113AF}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="3" max="3" width="56.140625" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>